--- a/Test Data/TC_164_Verify_DC_WorstCase_Units_Indicator.xlsx
+++ b/Test Data/TC_164_Verify_DC_WorstCase_Units_Indicator.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A3586F-12D7-4966-8CC7-DB129E91499B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278EA006-87CB-4548-8F6E-03DAB155584E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Devices</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>NGC-1194 or NGC-494/TC-164</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -183,6 +198,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +544,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,6 +565,9 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -558,6 +580,9 @@
         <v>11</v>
       </c>
       <c r="D2" s="10"/>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -569,6 +594,9 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/Test Data/TC_164_Verify_DC_WorstCase_Units_Indicator.xlsx
+++ b/Test Data/TC_164_Verify_DC_WorstCase_Units_Indicator.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278EA006-87CB-4548-8F6E-03DAB155584E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3BF609-BF60-40DE-ABC7-EB1A962740DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Devices</t>
   </si>
@@ -82,9 +82,6 @@
     <t>VerifyDCUnitsAndWorstCaseIndicators</t>
   </si>
   <si>
-    <t>NGC-1194 or NGC-494/TC-164</t>
-  </si>
-  <si>
     <t>DC Unit Loading Details Name</t>
   </si>
   <si>
@@ -92,6 +89,33 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>FV 411 F</t>
+  </si>
+  <si>
+    <t>Detectors</t>
+  </si>
+  <si>
+    <t>NGC-494/T416 OR TC-164</t>
   </si>
 </sst>
 </file>
@@ -193,15 +217,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,35 +580,48 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="12"/>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -595,29 +632,38 @@
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -651,59 +697,59 @@
         <v>2</v>
       </c>
       <c r="D8" s="8">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="E8" s="8">
         <v>4000</v>
       </c>
       <c r="F8" s="8">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="G8" s="8">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D9" s="8">
-        <v>3808</v>
+        <v>3963</v>
       </c>
       <c r="E9" s="8">
         <v>4000</v>
       </c>
       <c r="F9" s="8">
-        <v>3808</v>
+        <v>3963</v>
       </c>
       <c r="G9" s="8">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
-        <v>15</v>
-      </c>
       <c r="D10" s="8">
-        <v>4060</v>
+        <v>4017</v>
       </c>
       <c r="E10" s="8">
         <v>4000</v>
       </c>
       <c r="F10" s="8">
-        <v>4060</v>
+        <v>4017</v>
       </c>
       <c r="G10" s="8">
         <v>4000</v>
